--- a/medicine/Enfance/Serge_Bloch/Serge_Bloch.xlsx
+++ b/medicine/Enfance/Serge_Bloch/Serge_Bloch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Bloch, né le 18 juin 1956 à Colmar, est un illustrateur français. Il vit à Paris. Il est le créateur de Max et Lili et de SamSam[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Bloch, né le 18 juin 1956 à Colmar, est un illustrateur français. Il vit à Paris. Il est le créateur de Max et Lili et de SamSam.
 Il dessine pour la presse internationale, l’édition.
 </t>
         </is>
@@ -512,15 +524,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issu d'un père boucher-charcutier[2], Serge Bloch passe son enfance à Colmar, où il reçoit « une éducation un peu religieuse » dispensée par Simon Fuks, dont le souvenir l'a marqué positivement[3]. En 1976[3], il entre à l'atelier d'illustration de Claude Lapointe à l'École supérieure des arts décoratifs de Strasbourg[1], puis commence à travailler pour la presse enfantine.
-Il a été notamment rédacteur en chef visuel du journal Astrapi[2]. Il est également dessinateur de presse et travaille pour différents quotidiens comme The Washington Post[1], The Wall Street Journal, The New York Times[2], The Boston Globe, Los Angeles Times, Télérama[2], La Croix[2], etc.
-Il est l'illustrateur de plusieurs dizaines d'ouvrages jeunesse, dont la série Max et Lili commencée en 1992 (Éd. Calligram, 122 tomes parus en février 2020), sur des textes de Dominique de Saint Mars et la série Enquête au collège, écrite par Jean-Philippe Arrou-Vignod[2]. En 1987, il devient directeur artistique chez Bayard jeunesse et par la suite signe les illustrations de Dessine-moi la Bible sur des textes de son collègue Frédéric Boyer, qui est suivi de Jésus, l'histoire d'une Parole[3].
-Il est l'auteur-l'illustrateur de plusieurs ouvrages, dont la série de bande dessinée SamSam, du personnage éponyme initialement créé dans le mensuel pour enfants Pomme d'Api et héros d'une série télévisée d'animation[2]. Cette série commence en 2000[1]. En 2018, il livre son autobiographie dans Rue de l'ours avec Marie Desplechin[2].
-En 2005, il reçoit le prix Baobab du Salon du livre et de la presse jeunesse de Montreuil pour Moi j’attends de Davide Cali (Éditions Sarbacane)[3].
-En 2005, il reçoit la médaille d'or de la Society of Illustrators[4], lors de sa 47e exposition annuelle.
-En 2007, il reçoit le Bologna Ragazzi Award, catégorie non Fiction[4],[5], de la Foire du livre de jeunesse de Bologne pour ses illustrations de L’encyclopédie des cancres, des rebelles et autres génies de Jean-Bernard Pouy (Gallimard Jeunesse).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu d'un père boucher-charcutier, Serge Bloch passe son enfance à Colmar, où il reçoit « une éducation un peu religieuse » dispensée par Simon Fuks, dont le souvenir l'a marqué positivement. En 1976, il entre à l'atelier d'illustration de Claude Lapointe à l'École supérieure des arts décoratifs de Strasbourg, puis commence à travailler pour la presse enfantine.
+Il a été notamment rédacteur en chef visuel du journal Astrapi. Il est également dessinateur de presse et travaille pour différents quotidiens comme The Washington Post, The Wall Street Journal, The New York Times, The Boston Globe, Los Angeles Times, Télérama, La Croix, etc.
+Il est l'illustrateur de plusieurs dizaines d'ouvrages jeunesse, dont la série Max et Lili commencée en 1992 (Éd. Calligram, 122 tomes parus en février 2020), sur des textes de Dominique de Saint Mars et la série Enquête au collège, écrite par Jean-Philippe Arrou-Vignod. En 1987, il devient directeur artistique chez Bayard jeunesse et par la suite signe les illustrations de Dessine-moi la Bible sur des textes de son collègue Frédéric Boyer, qui est suivi de Jésus, l'histoire d'une Parole.
+Il est l'auteur-l'illustrateur de plusieurs ouvrages, dont la série de bande dessinée SamSam, du personnage éponyme initialement créé dans le mensuel pour enfants Pomme d'Api et héros d'une série télévisée d'animation. Cette série commence en 2000. En 2018, il livre son autobiographie dans Rue de l'ours avec Marie Desplechin.
+En 2005, il reçoit le prix Baobab du Salon du livre et de la presse jeunesse de Montreuil pour Moi j’attends de Davide Cali (Éditions Sarbacane).
+En 2005, il reçoit la médaille d'or de la Society of Illustrators, lors de sa 47e exposition annuelle.
+En 2007, il reçoit le Bologna Ragazzi Award, catégorie non Fiction de la Foire du livre de jeunesse de Bologne pour ses illustrations de L’encyclopédie des cancres, des rebelles et autres génies de Jean-Bernard Pouy (Gallimard Jeunesse).
 </t>
         </is>
       </c>
@@ -551,13 +565,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Série
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série
 série SamSam, Bayard jeunesse
 Autre
-Le collectionneur, Bayard images, 2012
-Illustrateur
-Séries
+Le collectionneur, Bayard images, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Serge_Bloch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Bloch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Séries
 série Max et Lili, texte de Dominique de Saint-Mars
 série Enquête au collège, texte de Jean-Philippe Arrou-Vignod, Gallimard jeunesse
 série Zouk, texte de Nicolas Hubesch
@@ -566,12 +619,12 @@
 Tête de grenouille, 1997
 Autre
 Merci moustique !, texte de Thierry Lenain, Nathan, 1997
-Sam et son papa[6], Bayard éditions, 1998
+Sam et son papa, Bayard éditions, 1998
 Silence, les monstres !, texte de Thierry Lenain, Nathan, 1999
-Au secours les anges ![7], texte de Thierry Lenain, Nathan, 2000 ; rééd. Les 400 coups, 2007
+Au secours les anges !, texte de Thierry Lenain, Nathan, 2000 ; rééd. Les 400 coups, 2007
 Tempête à la maison, texte de Jo Hoestlandt, Bayard jeunesse, 2003
 Graine de bébé, texte de Thierry Lenain, Nathan, 2003
-Moi j’attends[2], texte de Davide Cali, Éditions Sarbacane, 2005
+Moi j’attends, texte de Davide Cali, Éditions Sarbacane, 2005
 Le Petit oiseau qui chantait faux, de Renaud Sechan, animé par Gérard Lo Monaco, sur une musique d'Eduardo Makaroff et Paul Lazard, Éditions Naïve Records, 2005  (ISBN 2-3502-1024-3)
 Catalogue de bêtises (très) culottées, texte de Élisabeth Brami, Seuil jeunesse, 2013
 Eux, c'est Nous, texte de Daniel Pennac, Jessie Magna et Carole Saturno, Les éditeurs jeunesse avec les réfugiés, 2015
@@ -581,34 +634,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Serge_Bloch</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Serge_Bloch</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En série animée
-SamSam, d'après sa série de bande dessinée éponyme, série française, 2 saisons, 91 épisodes, 2007-2010.</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En série animée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SamSam, d'après sa série de bande dessinée éponyme, série française, 2 saisons, 91 épisodes, 2007-2010.</t>
         </is>
       </c>
     </row>
